--- a/Presentation/Presentation_order.xlsx
+++ b/Presentation/Presentation_order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c5a75123e981c5c3/Desktop/project files and folders/Team_Project_One/Presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F007A6E3-3C7C-475A-917A-72252322A3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58EBB614-0A96-4D76-B47B-5EE6E0DD78E3}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{F007A6E3-3C7C-475A-917A-72252322A3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E6FB146-6285-4B99-9362-9E984B116490}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{95FD884D-E0CD-4048-8437-417138BA1EA3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95FD884D-E0CD-4048-8437-417138BA1EA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Slide number</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Abz</t>
   </si>
 </sst>
 </file>
@@ -478,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E5558C-A345-40F7-8EAE-D329042ABA31}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,7 +504,7 @@
     <col min="4" max="4" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,16 +517,22 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -524,8 +542,11 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -535,8 +556,11 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -546,8 +570,11 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -558,7 +585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -569,7 +596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -580,12 +607,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Presentation/Presentation_order.xlsx
+++ b/Presentation/Presentation_order.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c5a75123e981c5c3/Desktop/project files and folders/Team_Project_One/Presentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arshad\Documents\Arshi\DAB Courseworks\Project\Team_Project_One\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F007A6E3-3C7C-475A-917A-72252322A3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58EBB614-0A96-4D76-B47B-5EE6E0DD78E3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48A385E3-5E63-419C-B039-932C60DAE7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{95FD884D-E0CD-4048-8437-417138BA1EA3}"/>
+    <workbookView xWindow="2964" yWindow="492" windowWidth="19152" windowHeight="11544" xr2:uid="{95FD884D-E0CD-4048-8437-417138BA1EA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Slide number</t>
   </si>
@@ -112,6 +113,24 @@
   </si>
   <si>
     <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>Poor weather conditions influence the number of accidents</t>
+  </si>
+  <si>
+    <t>Abz</t>
+  </si>
+  <si>
+    <t>Serdar</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Arshad</t>
   </si>
 </sst>
 </file>
@@ -480,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E5558C-A345-40F7-8EAE-D329042ABA31}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,6 +532,9 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -524,6 +546,9 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -535,6 +560,9 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -546,6 +574,9 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -557,6 +588,9 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -568,6 +602,9 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -579,6 +616,9 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -586,6 +626,12 @@
       </c>
       <c r="B9" t="s">
         <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -593,4 +639,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E232C354-304F-4238-936D-A18D6BB1D8CD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>